--- a/activity/LandUseAnalysis/LandUseAnalysis.xlsx
+++ b/activity/LandUseAnalysis/LandUseAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\LandUseAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD020754-7F89-4BC2-B941-6501B775C007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F661579A-286C-4FD2-8838-8AC8C9231BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{083DB57A-D308-4BA8-9465-7C945AEA6F13}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Clasificación</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Protección</t>
   </si>
   <si>
-    <t>Acuerdo 012 de 2013., CRS 3116</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Área (ha)</t>
   </si>
   <si>
@@ -78,13 +75,35 @@
   </si>
   <si>
     <t>Ʃ</t>
+  </si>
+  <si>
+    <t>Diferencia Acuerdo</t>
+  </si>
+  <si>
+    <t>Acuerdo 012 de 2013., CRS 3116. Área planar</t>
+  </si>
+  <si>
+    <t>Curso SIGE, CRS 3116.
+Área planar</t>
+  </si>
+  <si>
+    <t>Curso SIGE, CRS 3116.
+Área geodésica</t>
+  </si>
+  <si>
+    <t>Curso SIGE, CRS 9377.
+Área planar</t>
+  </si>
+  <si>
+    <t>Curso SIGE, CRS 9377.
+Área geodésica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,21 +124,297 @@
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -127,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -135,10 +430,88 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -476,136 +849,504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C2EF7B-664C-45B0-9EC1-70D750D7599C}">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:Q16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1328125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.06640625" style="2"/>
-    <col min="6" max="16384" width="9.06640625" style="1"/>
+    <col min="2" max="2" width="13.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.06640625" style="1"/>
+    <col min="9" max="9" width="10.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.06640625" style="1"/>
+    <col min="12" max="12" width="10.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.265625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.06640625" style="1"/>
+    <col min="15" max="15" width="10.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.265625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D2" s="3" t="s">
+    <row r="2" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="27"/>
+    </row>
+    <row r="4" spans="2:17" ht="33" x14ac:dyDescent="0.45">
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="28">
+        <v>585.91</v>
+      </c>
+      <c r="E5" s="15">
+        <f>D5/D$10</f>
+        <v>3.0012175750842234E-2</v>
+      </c>
+      <c r="F5" s="28">
+        <v>585.91065200000003</v>
+      </c>
+      <c r="G5" s="3">
+        <f>F5/F$10</f>
+        <v>3.0004937391937891E-2</v>
+      </c>
+      <c r="H5" s="11">
+        <f>D5-$F5</f>
+        <v>-6.5200000005916081E-4</v>
+      </c>
+      <c r="I5" s="28">
+        <v>585.90950699999996</v>
+      </c>
+      <c r="J5" s="3">
+        <f>I5/I$10</f>
+        <v>3.000492141400405E-2</v>
+      </c>
+      <c r="K5" s="11">
+        <f>D5-$I5</f>
+        <v>4.9300000000584987E-4</v>
+      </c>
+      <c r="L5" s="28">
+        <v>585.14971600000001</v>
+      </c>
+      <c r="M5" s="3">
+        <f>L5/L$10</f>
+        <v>3.0004441887627308E-2</v>
+      </c>
+      <c r="N5" s="11">
+        <f>J5-$F5</f>
+        <v>-585.88064707858598</v>
+      </c>
+      <c r="O5" s="28">
+        <v>585.90951199999995</v>
+      </c>
+      <c r="P5" s="3">
+        <f>O5/O$10</f>
+        <v>3.0004921663911967E-2</v>
+      </c>
+      <c r="Q5" s="11">
+        <f>J5-$I5</f>
+        <v>-585.87950207858592</v>
+      </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    <row r="6" spans="2:17" ht="49.5" x14ac:dyDescent="0.45">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="28">
+        <v>354.3</v>
+      </c>
+      <c r="E6" s="15">
+        <f>D6/D$10</f>
+        <v>1.8148374099304337E-2</v>
+      </c>
+      <c r="F6" s="28">
+        <v>354.30383999999998</v>
+      </c>
+      <c r="G6" s="3">
+        <f>F6/F$10</f>
+        <v>1.8144173519690811E-2</v>
+      </c>
+      <c r="H6" s="11">
+        <f>D6-$F6</f>
+        <v>-3.8399999999683132E-3</v>
+      </c>
+      <c r="I6" s="28">
+        <v>354.30303900000001</v>
+      </c>
+      <c r="J6" s="3">
+        <f>I6/I$10</f>
+        <v>1.8144158295656077E-2</v>
+      </c>
+      <c r="K6" s="11">
+        <f>D6-$I6</f>
+        <v>-3.0390000000011241E-3</v>
+      </c>
+      <c r="L6" s="28">
+        <v>353.84222699999998</v>
+      </c>
+      <c r="M6" s="3">
+        <f>L6/L$10</f>
+        <v>1.8143798496537474E-2</v>
+      </c>
+      <c r="N6" s="11">
+        <f>J6-$F6</f>
+        <v>-354.2856958417043</v>
+      </c>
+      <c r="O6" s="28">
+        <v>354.30303500000002</v>
+      </c>
+      <c r="P6" s="3">
+        <f>O6/O$10</f>
+        <v>1.8144158087095984E-2</v>
+      </c>
+      <c r="Q6" s="11">
+        <f>J6-$I6</f>
+        <v>-354.28489484170433</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="28">
+        <v>498.18</v>
+      </c>
+      <c r="E7" s="15">
+        <f>D7/D$10</f>
+        <v>2.5518365816515481E-2</v>
+      </c>
+      <c r="F7" s="28">
+        <v>502.11420299999997</v>
+      </c>
+      <c r="G7" s="3">
+        <f>F7/F$10</f>
+        <v>2.5713656464838929E-2</v>
+      </c>
+      <c r="H7" s="11">
+        <f>D7-$F7</f>
+        <v>-3.9342029999999681</v>
+      </c>
+      <c r="I7" s="28">
+        <v>502.11294800000002</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" ref="J6:J9" si="0">I7/I$10</f>
+        <v>2.5713628752731442E-2</v>
+      </c>
+      <c r="K7" s="11">
+        <f>D7-$I7</f>
+        <v>-3.9329480000000103</v>
+      </c>
+      <c r="L7" s="28">
+        <v>501.45890700000001</v>
+      </c>
+      <c r="M7" s="3">
+        <f>L7/L$10</f>
+        <v>2.5713068335684892E-2</v>
+      </c>
+      <c r="N7" s="11">
+        <f>J7-$F7</f>
+        <v>-502.08848937124725</v>
+      </c>
+      <c r="O7" s="28">
+        <v>502.11294800000002</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" ref="P7:P9" si="1">O7/O$10</f>
+        <v>2.5713628747464173E-2</v>
+      </c>
+      <c r="Q7" s="11">
+        <f>J7-$I7</f>
+        <v>-502.08723437124729</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="28">
+        <v>12666.94</v>
+      </c>
+      <c r="E8" s="15">
+        <f>D8/D$10</f>
+        <v>0.64884099862670652</v>
+      </c>
+      <c r="F8" s="28">
+        <v>10717.116491999999</v>
+      </c>
+      <c r="G8" s="3">
+        <f>F8/F$10</f>
+        <v>0.54883181977815454</v>
+      </c>
+      <c r="H8" s="11">
+        <f>D8-$F8</f>
+        <v>1949.8235080000013</v>
+      </c>
+      <c r="I8" s="28">
+        <v>10717.103329</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.54883192597249697</v>
+      </c>
+      <c r="K8" s="11">
+        <f>D8-$I8</f>
+        <v>1949.8366710000009</v>
+      </c>
+      <c r="L8" s="28">
+        <v>10703.420356000001</v>
+      </c>
+      <c r="M8" s="3">
+        <f>L8/L$10</f>
+        <v>0.54883416207699087</v>
+      </c>
+      <c r="N8" s="11">
+        <f>J8-$F8</f>
+        <v>-10716.567660074026</v>
+      </c>
+      <c r="O8" s="28">
+        <v>10717.103326</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.54883192570643979</v>
+      </c>
+      <c r="Q8" s="11">
+        <f>J8-$I8</f>
+        <v>-10716.554497074027</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="28">
+        <v>5417.08</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" ref="E9" si="2">D9/D$10</f>
+        <v>0.27748008570663152</v>
+      </c>
+      <c r="F9" s="28">
+        <v>7367.6961080000001</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" ref="G9" si="3">F9/F$10</f>
+        <v>0.37730541284537777</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" ref="H6:H9" si="4">D9-$F9</f>
+        <v>-1950.6161080000002</v>
+      </c>
+      <c r="I9" s="28">
+        <v>7367.6847100000005</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.37730536556511146</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" ref="K6:K9" si="5">D9-$I9</f>
+        <v>-1950.6047100000005</v>
+      </c>
+      <c r="L9" s="28">
+        <v>7358.2317890000004</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" ref="M9" si="6">L9/L$10</f>
+        <v>0.37730452920315938</v>
+      </c>
+      <c r="N9" s="11">
+        <f t="shared" ref="N9:N12" si="7">J9-$F9</f>
+        <v>-7367.3188026344351</v>
+      </c>
+      <c r="O9" s="28">
+        <v>7367.6847159999998</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.377305365795088</v>
+      </c>
+      <c r="Q9" s="11">
+        <f t="shared" ref="Q9:Q12" si="8">J9-$I9</f>
+        <v>-7367.3074046344354</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>585.91</v>
-      </c>
-      <c r="E5" s="4">
-        <f>D5/$D$10</f>
-        <v>3.0012175750842234E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>354.3</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" ref="E6:E9" si="0">D6/$D$10</f>
-        <v>1.8148374099304337E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2">
-        <v>498.18</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>2.5518365816515481E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2">
-        <v>12666.94</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.64884099862670652</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>5417.08</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.27748008570663152</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="D10" s="29">
         <f>SUM(D5:D9)</f>
         <v>19522.41</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="16">
         <f>SUM(E5:E9)</f>
         <v>1</v>
       </c>
+      <c r="F10" s="29">
+        <f>SUM(F5:F9)</f>
+        <v>19527.141295000001</v>
+      </c>
+      <c r="G10" s="20">
+        <f>SUM(G5:G9)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="H10" s="30">
+        <f>SUM(H5:H9)</f>
+        <v>-4.7312949999989087</v>
+      </c>
+      <c r="I10" s="29">
+        <f>SUM(I5:I9)</f>
+        <v>19527.113533</v>
+      </c>
+      <c r="J10" s="20">
+        <f>SUM(J5:J9)</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="30">
+        <f>SUM(K5:K9)</f>
+        <v>-4.703532999999652</v>
+      </c>
+      <c r="L10" s="29">
+        <f>SUM(L5:L9)</f>
+        <v>19502.102995000001</v>
+      </c>
+      <c r="M10" s="20">
+        <f>SUM(M5:M9)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="N10" s="30">
+        <f>SUM(N5:N9)</f>
+        <v>-19526.141294999998</v>
+      </c>
+      <c r="O10" s="29">
+        <f>SUM(O5:O9)</f>
+        <v>19527.113537000001</v>
+      </c>
+      <c r="P10" s="20">
+        <f>SUM(P5:P9)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="Q10" s="30">
+        <f>SUM(Q5:Q9)</f>
+        <v>-19526.113533</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="D16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:Q3"/>
     <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="I2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/activity/LandUseAnalysis/LandUseAnalysis.xlsx
+++ b/activity/LandUseAnalysis/LandUseAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\LandUseAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F661579A-286C-4FD2-8838-8AC8C9231BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE201D4-F232-43DD-B925-DEB9F7D89B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{083DB57A-D308-4BA8-9465-7C945AEA6F13}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Clasificación</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Ʃ</t>
-  </si>
-  <si>
-    <t>Diferencia Acuerdo</t>
   </si>
   <si>
     <t>Acuerdo 012 de 2013., CRS 3116. Área planar</t>
@@ -97,6 +94,18 @@
   <si>
     <t>Curso SIGE, CRS 9377.
 Área geodésica</t>
+  </si>
+  <si>
+    <t>Diferencia Acuerdo (ha)</t>
+  </si>
+  <si>
+    <t>Valor menor</t>
+  </si>
+  <si>
+    <t>Valor mayor</t>
+  </si>
+  <si>
+    <t>Valor similar o coincidente</t>
   </si>
 </sst>
 </file>
@@ -131,7 +140,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +153,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -422,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -454,9 +481,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -513,6 +537,30 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -852,13 +900,13 @@
   <dimension ref="B2:Q16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.9296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.796875" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.265625" style="2" customWidth="1"/>
@@ -878,94 +926,94 @@
   <sheetData>
     <row r="2" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="27"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="26"/>
     </row>
-    <row r="4" spans="2:17" ht="33" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:17" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="21" t="s">
+      <c r="K4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="21" t="s">
+      <c r="N4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="24" t="s">
-        <v>13</v>
+      <c r="Q4" s="23" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.45">
@@ -975,115 +1023,115 @@
       <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <v>585.91</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <f>D5/D$10</f>
         <v>3.0012175750842234E-2</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="27">
         <v>585.91065200000003</v>
       </c>
       <c r="G5" s="3">
         <f>F5/F$10</f>
         <v>3.0004937391937891E-2</v>
       </c>
-      <c r="H5" s="11">
-        <f>D5-$F5</f>
-        <v>-6.5200000005916081E-4</v>
-      </c>
-      <c r="I5" s="28">
+      <c r="H5" s="30">
+        <f>F5-$D5</f>
+        <v>6.5200000005916081E-4</v>
+      </c>
+      <c r="I5" s="27">
         <v>585.90950699999996</v>
       </c>
       <c r="J5" s="3">
         <f>I5/I$10</f>
         <v>3.000492141400405E-2</v>
       </c>
-      <c r="K5" s="11">
-        <f>D5-$I5</f>
-        <v>4.9300000000584987E-4</v>
-      </c>
-      <c r="L5" s="28">
+      <c r="K5" s="30">
+        <f>I5-$D5</f>
+        <v>-4.9300000000584987E-4</v>
+      </c>
+      <c r="L5" s="27">
         <v>585.14971600000001</v>
       </c>
       <c r="M5" s="3">
         <f>L5/L$10</f>
         <v>3.0004441887627308E-2</v>
       </c>
-      <c r="N5" s="11">
-        <f>J5-$F5</f>
-        <v>-585.88064707858598</v>
-      </c>
-      <c r="O5" s="28">
+      <c r="N5" s="30">
+        <f>L5-$D5</f>
+        <v>-0.760283999999956</v>
+      </c>
+      <c r="O5" s="27">
         <v>585.90951199999995</v>
       </c>
       <c r="P5" s="3">
         <f>O5/O$10</f>
         <v>3.0004921663911967E-2</v>
       </c>
-      <c r="Q5" s="11">
-        <f>J5-$I5</f>
-        <v>-585.87950207858592</v>
+      <c r="Q5" s="30">
+        <f>O5-$D5</f>
+        <v>-4.8800000001847366E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="49.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:17" ht="33" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="27">
         <v>354.3</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <f>D6/D$10</f>
         <v>1.8148374099304337E-2</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="27">
         <v>354.30383999999998</v>
       </c>
       <c r="G6" s="3">
         <f>F6/F$10</f>
         <v>1.8144173519690811E-2</v>
       </c>
-      <c r="H6" s="11">
-        <f>D6-$F6</f>
-        <v>-3.8399999999683132E-3</v>
-      </c>
-      <c r="I6" s="28">
+      <c r="H6" s="30">
+        <f t="shared" ref="H6:H9" si="0">F6-$D6</f>
+        <v>3.8399999999683132E-3</v>
+      </c>
+      <c r="I6" s="27">
         <v>354.30303900000001</v>
       </c>
       <c r="J6" s="3">
         <f>I6/I$10</f>
         <v>1.8144158295656077E-2</v>
       </c>
-      <c r="K6" s="11">
-        <f>D6-$I6</f>
-        <v>-3.0390000000011241E-3</v>
-      </c>
-      <c r="L6" s="28">
+      <c r="K6" s="30">
+        <f t="shared" ref="K6:K9" si="1">I6-$D6</f>
+        <v>3.0390000000011241E-3</v>
+      </c>
+      <c r="L6" s="27">
         <v>353.84222699999998</v>
       </c>
       <c r="M6" s="3">
         <f>L6/L$10</f>
         <v>1.8143798496537474E-2</v>
       </c>
-      <c r="N6" s="11">
-        <f>J6-$F6</f>
-        <v>-354.2856958417043</v>
-      </c>
-      <c r="O6" s="28">
+      <c r="N6" s="30">
+        <f t="shared" ref="N6:N9" si="2">L6-$D6</f>
+        <v>-0.45777300000003152</v>
+      </c>
+      <c r="O6" s="27">
         <v>354.30303500000002</v>
       </c>
       <c r="P6" s="3">
         <f>O6/O$10</f>
         <v>1.8144158087095984E-2</v>
       </c>
-      <c r="Q6" s="11">
-        <f>J6-$I6</f>
-        <v>-354.28489484170433</v>
+      <c r="Q6" s="30">
+        <f t="shared" ref="Q6:Q9" si="3">O6-$D6</f>
+        <v>3.0350000000112232E-3</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.45">
@@ -1093,56 +1141,56 @@
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="27">
         <v>498.18</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <f>D7/D$10</f>
         <v>2.5518365816515481E-2</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="27">
         <v>502.11420299999997</v>
       </c>
       <c r="G7" s="3">
         <f>F7/F$10</f>
         <v>2.5713656464838929E-2</v>
       </c>
-      <c r="H7" s="11">
-        <f>D7-$F7</f>
-        <v>-3.9342029999999681</v>
-      </c>
-      <c r="I7" s="28">
+      <c r="H7" s="31">
+        <f t="shared" si="0"/>
+        <v>3.9342029999999681</v>
+      </c>
+      <c r="I7" s="27">
         <v>502.11294800000002</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" ref="J6:J9" si="0">I7/I$10</f>
+        <f t="shared" ref="J6:J9" si="4">I7/I$10</f>
         <v>2.5713628752731442E-2</v>
       </c>
-      <c r="K7" s="11">
-        <f>D7-$I7</f>
-        <v>-3.9329480000000103</v>
-      </c>
-      <c r="L7" s="28">
+      <c r="K7" s="31">
+        <f t="shared" si="1"/>
+        <v>3.9329480000000103</v>
+      </c>
+      <c r="L7" s="27">
         <v>501.45890700000001</v>
       </c>
       <c r="M7" s="3">
         <f>L7/L$10</f>
         <v>2.5713068335684892E-2</v>
       </c>
-      <c r="N7" s="11">
-        <f>J7-$F7</f>
-        <v>-502.08848937124725</v>
-      </c>
-      <c r="O7" s="28">
+      <c r="N7" s="31">
+        <f t="shared" si="2"/>
+        <v>3.2789070000000038</v>
+      </c>
+      <c r="O7" s="27">
         <v>502.11294800000002</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" ref="P7:P9" si="1">O7/O$10</f>
+        <f t="shared" ref="P7:P9" si="5">O7/O$10</f>
         <v>2.5713628747464173E-2</v>
       </c>
-      <c r="Q7" s="11">
-        <f>J7-$I7</f>
-        <v>-502.08723437124729</v>
+      <c r="Q7" s="31">
+        <f t="shared" si="3"/>
+        <v>3.9329480000000103</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.45">
@@ -1152,56 +1200,56 @@
       <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>12666.94</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <f>D8/D$10</f>
         <v>0.64884099862670652</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="27">
         <v>10717.116491999999</v>
       </c>
       <c r="G8" s="3">
         <f>F8/F$10</f>
         <v>0.54883181977815454</v>
       </c>
-      <c r="H8" s="11">
-        <f>D8-$F8</f>
-        <v>1949.8235080000013</v>
-      </c>
-      <c r="I8" s="28">
+      <c r="H8" s="32">
+        <f t="shared" si="0"/>
+        <v>-1949.8235080000013</v>
+      </c>
+      <c r="I8" s="27">
         <v>10717.103329</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.54883192597249697</v>
       </c>
-      <c r="K8" s="11">
-        <f>D8-$I8</f>
-        <v>1949.8366710000009</v>
-      </c>
-      <c r="L8" s="28">
+      <c r="K8" s="32">
+        <f t="shared" si="1"/>
+        <v>-1949.8366710000009</v>
+      </c>
+      <c r="L8" s="27">
         <v>10703.420356000001</v>
       </c>
       <c r="M8" s="3">
         <f>L8/L$10</f>
         <v>0.54883416207699087</v>
       </c>
-      <c r="N8" s="11">
-        <f>J8-$F8</f>
-        <v>-10716.567660074026</v>
-      </c>
-      <c r="O8" s="28">
+      <c r="N8" s="32">
+        <f t="shared" si="2"/>
+        <v>-1963.519644</v>
+      </c>
+      <c r="O8" s="27">
         <v>10717.103326</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.54883192570643979</v>
       </c>
-      <c r="Q8" s="11">
-        <f>J8-$I8</f>
-        <v>-10716.554497074027</v>
+      <c r="Q8" s="32">
+        <f t="shared" si="3"/>
+        <v>-1949.8366740000001</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.45">
@@ -1211,56 +1259,56 @@
       <c r="C9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="27">
         <v>5417.08</v>
       </c>
-      <c r="E9" s="15">
-        <f t="shared" ref="E9" si="2">D9/D$10</f>
+      <c r="E9" s="14">
+        <f t="shared" ref="E9" si="6">D9/D$10</f>
         <v>0.27748008570663152</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="27">
         <v>7367.6961080000001</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" ref="G9" si="3">F9/F$10</f>
+        <f t="shared" ref="G9" si="7">F9/F$10</f>
         <v>0.37730541284537777</v>
       </c>
-      <c r="H9" s="11">
-        <f t="shared" ref="H6:H9" si="4">D9-$F9</f>
-        <v>-1950.6161080000002</v>
-      </c>
-      <c r="I9" s="28">
+      <c r="H9" s="31">
+        <f t="shared" si="0"/>
+        <v>1950.6161080000002</v>
+      </c>
+      <c r="I9" s="27">
         <v>7367.6847100000005</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.37730536556511146</v>
       </c>
-      <c r="K9" s="11">
-        <f t="shared" ref="K6:K9" si="5">D9-$I9</f>
-        <v>-1950.6047100000005</v>
-      </c>
-      <c r="L9" s="28">
+      <c r="K9" s="31">
+        <f t="shared" si="1"/>
+        <v>1950.6047100000005</v>
+      </c>
+      <c r="L9" s="27">
         <v>7358.2317890000004</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" ref="M9" si="6">L9/L$10</f>
+        <f t="shared" ref="M9" si="8">L9/L$10</f>
         <v>0.37730452920315938</v>
       </c>
-      <c r="N9" s="11">
-        <f t="shared" ref="N9:N12" si="7">J9-$F9</f>
-        <v>-7367.3188026344351</v>
-      </c>
-      <c r="O9" s="28">
+      <c r="N9" s="31">
+        <f t="shared" si="2"/>
+        <v>1941.1517890000005</v>
+      </c>
+      <c r="O9" s="27">
         <v>7367.6847159999998</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.377305365795088</v>
       </c>
-      <c r="Q9" s="11">
-        <f t="shared" ref="Q9:Q12" si="8">J9-$I9</f>
-        <v>-7367.3074046344354</v>
+      <c r="Q9" s="31">
+        <f t="shared" si="3"/>
+        <v>1950.6047159999998</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
@@ -1268,71 +1316,83 @@
       <c r="C10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="28">
         <f>SUM(D5:D9)</f>
         <v>19522.41</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <f>SUM(E5:E9)</f>
         <v>1</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="28">
         <f>SUM(F5:F9)</f>
         <v>19527.141295000001</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <f>SUM(G5:G9)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="29">
         <f>SUM(H5:H9)</f>
-        <v>-4.7312949999989087</v>
-      </c>
-      <c r="I10" s="29">
+        <v>4.7312949999989087</v>
+      </c>
+      <c r="I10" s="28">
         <f>SUM(I5:I9)</f>
         <v>19527.113533</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="19">
         <f>SUM(J5:J9)</f>
         <v>1</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="29">
         <f>SUM(K5:K9)</f>
-        <v>-4.703532999999652</v>
-      </c>
-      <c r="L10" s="29">
+        <v>4.703532999999652</v>
+      </c>
+      <c r="L10" s="28">
         <f>SUM(L5:L9)</f>
         <v>19502.102995000001</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="19">
         <f>SUM(M5:M9)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="29">
         <f>SUM(N5:N9)</f>
-        <v>-19526.141294999998</v>
-      </c>
-      <c r="O10" s="29">
+        <v>-20.307004999999435</v>
+      </c>
+      <c r="O10" s="28">
         <f>SUM(O5:O9)</f>
         <v>19527.113537000001</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="19">
         <f>SUM(P5:P9)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="Q10" s="29">
         <f>SUM(Q5:Q9)</f>
-        <v>-19526.113533</v>
+        <v>4.7035369999996419</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="D12" s="1"/>
+    <row r="12" spans="2:17" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="33"/>
+      <c r="C12" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="35"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="D13" s="1"/>
+    <row r="13" spans="2:17" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="36"/>
+      <c r="C13" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="35"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="D14" s="1"/>
+    <row r="14" spans="2:17" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="37"/>
+      <c r="C14" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.45">
       <c r="D15" s="1"/>

--- a/activity/LandUseAnalysis/LandUseAnalysis.xlsx
+++ b/activity/LandUseAnalysis/LandUseAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\LandUseAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE201D4-F232-43DD-B925-DEB9F7D89B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08B2836-25BB-42BB-BC9B-3D1AE1FA13A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{083DB57A-D308-4BA8-9465-7C945AEA6F13}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>Ʃ</t>
   </si>
   <si>
-    <t>Acuerdo 012 de 2013., CRS 3116. Área planar</t>
-  </si>
-  <si>
     <t>Curso SIGE, CRS 3116.
 Área planar</t>
   </si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Valor similar o coincidente</t>
+  </si>
+  <si>
+    <t>Acuerdo 012 de 2013, CRS 3116.</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -472,37 +472,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,15 +497,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -547,20 +517,53 @@
     <xf numFmtId="2" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -569,6 +572,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFEABE"/>
+      <color rgb="FFD6C29F"/>
+      <color rgb="FFD69DBE"/>
+      <color rgb="FFCDCDCD"/>
+      <color rgb="FF74B273"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -578,6 +590,1990 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>Sheet1!$D$2</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Acuerdo 012 de 2013, CRS 3116.</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4182268693835906"/>
+          <c:y val="0.23485965296004666"/>
+          <c:w val="0.48613755482645737"/>
+          <c:h val="0.73280256634587349"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Área (ha)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="CDCDCD"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-29D6-4061-9440-D56C42A15785}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="D69DBE"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-29D6-4061-9440-D56C42A15785}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="D6C29F"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-29D6-4061-9440-D56C42A15785}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="74B273"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-29D6-4061-9440-D56C42A15785}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFEABE"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-29D6-4061-9440-D56C42A15785}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$5:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Urbano</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Expansión urbana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Suburbano</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Protección</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rural</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>585.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>354.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>498.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12666.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5417.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29D6-4061-9440-D56C42A15785}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.5000000000000001E-2"/>
+          <c:y val="0.3912795275590551"/>
+          <c:w val="0.37738168310418646"/>
+          <c:h val="0.33557232429279671"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>Sheet1!$I$2</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Curso SIGE, CRS 3116.
+Área geodésica</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4182268693835906"/>
+          <c:y val="0.23485965296004666"/>
+          <c:w val="0.48613755482645737"/>
+          <c:h val="0.73280256634587349"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Área (ha)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="CDCDCD"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DC35-4697-AA6D-F604AA9E2697}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="D69DBE"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DC35-4697-AA6D-F604AA9E2697}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="D6C29F"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DC35-4697-AA6D-F604AA9E2697}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="74B273"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-DC35-4697-AA6D-F604AA9E2697}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFEABE"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-DC35-4697-AA6D-F604AA9E2697}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$5:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Urbano</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Expansión urbana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Suburbano</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Protección</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rural</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>585.90950699999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>354.30303900000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>502.11294800000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10717.103329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7367.6847100000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-DC35-4697-AA6D-F604AA9E2697}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.5000000000000001E-2"/>
+          <c:y val="0.3912795275590551"/>
+          <c:w val="0.37738168310418646"/>
+          <c:h val="0.33557232429279671"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>751645</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>144116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>575640</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>141632</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79AADD0C-CCCF-7097-B9D1-8EBA6CE73799}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>260902</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>354082</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>154885</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCA69AE3-D42E-416B-9FAE-3A7BC1BB402C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -900,7 +2896,7 @@
   <dimension ref="B2:Q16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -925,46 +2921,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="16" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="26"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="18"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="27"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="26"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="30"/>
     </row>
     <row r="4" spans="2:17" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B4" s="5" t="s">
@@ -973,47 +2969,47 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="20" t="s">
+      <c r="H4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="20" t="s">
+      <c r="K4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="20" t="s">
+      <c r="N4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="23" t="s">
-        <v>18</v>
+      <c r="Q4" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.45">
@@ -1023,54 +3019,54 @@
       <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="17">
         <v>585.91</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="10">
         <f>D5/D$10</f>
         <v>3.0012175750842234E-2</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="17">
         <v>585.91065200000003</v>
       </c>
       <c r="G5" s="3">
         <f>F5/F$10</f>
         <v>3.0004937391937891E-2</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="20">
         <f>F5-$D5</f>
         <v>6.5200000005916081E-4</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="17">
         <v>585.90950699999996</v>
       </c>
       <c r="J5" s="3">
         <f>I5/I$10</f>
         <v>3.000492141400405E-2</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="20">
         <f>I5-$D5</f>
         <v>-4.9300000000584987E-4</v>
       </c>
-      <c r="L5" s="27">
+      <c r="L5" s="17">
         <v>585.14971600000001</v>
       </c>
       <c r="M5" s="3">
         <f>L5/L$10</f>
         <v>3.0004441887627308E-2</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="20">
         <f>L5-$D5</f>
         <v>-0.760283999999956</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="17">
         <v>585.90951199999995</v>
       </c>
       <c r="P5" s="3">
         <f>O5/O$10</f>
         <v>3.0004921663911967E-2</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="20">
         <f>O5-$D5</f>
         <v>-4.8800000001847366E-4</v>
       </c>
@@ -1082,54 +3078,54 @@
       <c r="C6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="17">
         <v>354.3</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="10">
         <f>D6/D$10</f>
         <v>1.8148374099304337E-2</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="17">
         <v>354.30383999999998</v>
       </c>
       <c r="G6" s="3">
         <f>F6/F$10</f>
         <v>1.8144173519690811E-2</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="20">
         <f t="shared" ref="H6:H9" si="0">F6-$D6</f>
         <v>3.8399999999683132E-3</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="17">
         <v>354.30303900000001</v>
       </c>
       <c r="J6" s="3">
         <f>I6/I$10</f>
         <v>1.8144158295656077E-2</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="20">
         <f t="shared" ref="K6:K9" si="1">I6-$D6</f>
         <v>3.0390000000011241E-3</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="17">
         <v>353.84222699999998</v>
       </c>
       <c r="M6" s="3">
         <f>L6/L$10</f>
         <v>1.8143798496537474E-2</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="20">
         <f t="shared" ref="N6:N9" si="2">L6-$D6</f>
         <v>-0.45777300000003152</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="17">
         <v>354.30303500000002</v>
       </c>
       <c r="P6" s="3">
         <f>O6/O$10</f>
         <v>1.8144158087095984E-2</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="20">
         <f t="shared" ref="Q6:Q9" si="3">O6-$D6</f>
         <v>3.0350000000112232E-3</v>
       </c>
@@ -1141,54 +3137,54 @@
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="17">
         <v>498.18</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="10">
         <f>D7/D$10</f>
         <v>2.5518365816515481E-2</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="17">
         <v>502.11420299999997</v>
       </c>
       <c r="G7" s="3">
         <f>F7/F$10</f>
         <v>2.5713656464838929E-2</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="21">
         <f t="shared" si="0"/>
         <v>3.9342029999999681</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="17">
         <v>502.11294800000002</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" ref="J6:J9" si="4">I7/I$10</f>
+        <f t="shared" ref="J7:J9" si="4">I7/I$10</f>
         <v>2.5713628752731442E-2</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="21">
         <f t="shared" si="1"/>
         <v>3.9329480000000103</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="17">
         <v>501.45890700000001</v>
       </c>
       <c r="M7" s="3">
         <f>L7/L$10</f>
         <v>2.5713068335684892E-2</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="21">
         <f t="shared" si="2"/>
         <v>3.2789070000000038</v>
       </c>
-      <c r="O7" s="27">
+      <c r="O7" s="17">
         <v>502.11294800000002</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" ref="P7:P9" si="5">O7/O$10</f>
         <v>2.5713628747464173E-2</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="21">
         <f t="shared" si="3"/>
         <v>3.9329480000000103</v>
       </c>
@@ -1200,54 +3196,54 @@
       <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="17">
         <v>12666.94</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="10">
         <f>D8/D$10</f>
         <v>0.64884099862670652</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="17">
         <v>10717.116491999999</v>
       </c>
       <c r="G8" s="3">
         <f>F8/F$10</f>
         <v>0.54883181977815454</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="22">
         <f t="shared" si="0"/>
         <v>-1949.8235080000013</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="17">
         <v>10717.103329</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="4"/>
         <v>0.54883192597249697</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="22">
         <f t="shared" si="1"/>
         <v>-1949.8366710000009</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="17">
         <v>10703.420356000001</v>
       </c>
       <c r="M8" s="3">
         <f>L8/L$10</f>
         <v>0.54883416207699087</v>
       </c>
-      <c r="N8" s="32">
+      <c r="N8" s="22">
         <f t="shared" si="2"/>
         <v>-1963.519644</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="17">
         <v>10717.103326</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="5"/>
         <v>0.54883192570643979</v>
       </c>
-      <c r="Q8" s="32">
+      <c r="Q8" s="22">
         <f t="shared" si="3"/>
         <v>-1949.8366740000001</v>
       </c>
@@ -1259,142 +3255,143 @@
       <c r="C9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="17">
         <v>5417.08</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="10">
         <f t="shared" ref="E9" si="6">D9/D$10</f>
         <v>0.27748008570663152</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="17">
         <v>7367.6961080000001</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" ref="G9" si="7">F9/F$10</f>
         <v>0.37730541284537777</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="21">
         <f t="shared" si="0"/>
         <v>1950.6161080000002</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="17">
         <v>7367.6847100000005</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="4"/>
         <v>0.37730536556511146</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="21">
         <f t="shared" si="1"/>
         <v>1950.6047100000005</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="17">
         <v>7358.2317890000004</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" ref="M9" si="8">L9/L$10</f>
         <v>0.37730452920315938</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="21">
         <f t="shared" si="2"/>
         <v>1941.1517890000005</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="17">
         <v>7367.6847159999998</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="5"/>
         <v>0.377305365795088</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q9" s="21">
         <f t="shared" si="3"/>
         <v>1950.6047159999998</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="28">
-        <f>SUM(D5:D9)</f>
+      <c r="D10" s="18">
+        <f t="shared" ref="D10:Q10" si="9">SUM(D5:D9)</f>
         <v>19522.41</v>
       </c>
-      <c r="E10" s="15">
-        <f>SUM(E5:E9)</f>
+      <c r="E10" s="11">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="F10" s="28">
-        <f>SUM(F5:F9)</f>
+      <c r="F10" s="18">
+        <f t="shared" si="9"/>
         <v>19527.141295000001</v>
       </c>
-      <c r="G10" s="19">
-        <f>SUM(G5:G9)</f>
+      <c r="G10" s="12">
+        <f t="shared" si="9"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="H10" s="29">
-        <f>SUM(H5:H9)</f>
+      <c r="H10" s="19">
+        <f t="shared" si="9"/>
         <v>4.7312949999989087</v>
       </c>
-      <c r="I10" s="28">
-        <f>SUM(I5:I9)</f>
+      <c r="I10" s="18">
+        <f t="shared" si="9"/>
         <v>19527.113533</v>
       </c>
-      <c r="J10" s="19">
-        <f>SUM(J5:J9)</f>
+      <c r="J10" s="12">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K10" s="29">
-        <f>SUM(K5:K9)</f>
+      <c r="K10" s="19">
+        <f t="shared" si="9"/>
         <v>4.703532999999652</v>
       </c>
-      <c r="L10" s="28">
-        <f>SUM(L5:L9)</f>
+      <c r="L10" s="18">
+        <f t="shared" si="9"/>
         <v>19502.102995000001</v>
       </c>
-      <c r="M10" s="19">
-        <f>SUM(M5:M9)</f>
+      <c r="M10" s="12">
+        <f t="shared" si="9"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="N10" s="29">
-        <f>SUM(N5:N9)</f>
+      <c r="N10" s="19">
+        <f t="shared" si="9"/>
         <v>-20.307004999999435</v>
       </c>
-      <c r="O10" s="28">
-        <f>SUM(O5:O9)</f>
+      <c r="O10" s="18">
+        <f t="shared" si="9"/>
         <v>19527.113537000001</v>
       </c>
-      <c r="P10" s="19">
-        <f>SUM(P5:P9)</f>
+      <c r="P10" s="12">
+        <f t="shared" si="9"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="Q10" s="29">
-        <f>SUM(Q5:Q9)</f>
+      <c r="Q10" s="19">
+        <f t="shared" si="9"/>
         <v>4.7035369999996419</v>
       </c>
     </row>
-    <row r="12" spans="2:17" s="34" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="33"/>
-      <c r="C12" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="35"/>
+    <row r="12" spans="2:17" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="35"/>
+      <c r="C12" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="2:17" s="34" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:17" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B13" s="36"/>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="2:17" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="37"/>
+      <c r="C14" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="35"/>
-    </row>
-    <row r="14" spans="2:17" s="34" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="37"/>
-      <c r="C14" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="35"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B15" s="38"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.45">
@@ -1410,10 +3407,20 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010071D7322AB1F17A44BE7FE5C8D995D347" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a34332f796df4527adfd50cc06e73342">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7eeb79fa-ffdc-4bd7-a04f-d010a9c58256" xmlns:ns4="85273d68-90a1-4455-8abc-8dc013f26eed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c194d0ced072f42b9bcad298aae9931c" ns3:_="" ns4:_="">
     <xsd:import namespace="7eeb79fa-ffdc-4bd7-a04f-d010a9c58256"/>
@@ -1666,15 +3673,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1684,6 +3682,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FF4B74D-D4B2-45BE-9568-F6B8A60A816B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B79FC59-E321-4C32-AE17-5608653C3876}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1698,14 +3704,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FF4B74D-D4B2-45BE-9568-F6B8A60A816B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/activity/LandUseAnalysis/LandUseAnalysis.xlsx
+++ b/activity/LandUseAnalysis/LandUseAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\LandUseAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08B2836-25BB-42BB-BC9B-3D1AE1FA13A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD20EB08-6E3F-47E7-9F16-513A60F06A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{083DB57A-D308-4BA8-9465-7C945AEA6F13}"/>
   </bookViews>
@@ -2896,7 +2896,7 @@
   <dimension ref="B2:Q16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
